--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -564,10 +576,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -611,28 +623,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -657,28 +669,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -911,10 +923,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -958,28 +970,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1004,28 +1016,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1345,10 +1357,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1392,28 +1404,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1438,28 +1450,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1663,10 +1675,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1710,28 +1722,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1756,28 +1768,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1952,10 +1964,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1999,28 +2011,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2045,28 +2057,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2270,10 +2282,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2317,28 +2329,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2363,28 +2375,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2617,10 +2629,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2664,28 +2676,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2710,28 +2722,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2906,10 +2918,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2953,28 +2965,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2999,28 +3011,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3166,10 +3178,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="J105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3213,28 +3225,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3259,28 +3271,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3484,10 +3496,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="J116" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3531,28 +3543,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3577,28 +3589,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3802,10 +3814,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
+      <c r="J127" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3849,28 +3861,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3895,28 +3907,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4091,10 +4103,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
+      <c r="J137" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K137" s="2" t="s">
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4138,28 +4150,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4184,28 +4196,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4351,10 +4363,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="J146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4398,28 +4410,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4444,28 +4456,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4640,10 +4652,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4687,28 +4699,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4733,28 +4745,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4929,10 +4941,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
+      <c r="J166" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4976,28 +4988,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5022,28 +5034,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5189,10 +5201,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
+      <c r="J175" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5236,28 +5248,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5282,28 +5294,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5391,10 +5403,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
+      <c r="J182" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K182" s="2" t="s">
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5438,28 +5450,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5484,28 +5496,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5651,10 +5663,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
+      <c r="J191" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K191" s="2" t="s">
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -576,10 +624,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -623,28 +671,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="4">
+      <c r="A17" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="4">
+      <c r="B17" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="4">
+      <c r="C17" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="4">
+      <c r="D17" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="4">
+      <c r="E17" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="4">
+      <c r="F17" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="4">
+      <c r="G17" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="4">
+      <c r="H17" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -669,28 +717,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="4">
+      <c r="D19" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="4">
+      <c r="G19" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="4">
+      <c r="H19" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="4">
+      <c r="I19" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -923,10 +971,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -970,28 +1018,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="4">
+      <c r="A29" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="4">
+      <c r="B29" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="4">
+      <c r="C29" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="4">
+      <c r="D29" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="4">
+      <c r="E29" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="4">
+      <c r="F29" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="4">
+      <c r="G29" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="4">
+      <c r="H29" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1016,28 +1064,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="4">
+      <c r="B31" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="C31" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="4">
+      <c r="D31" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="4">
+      <c r="G31" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="4">
+      <c r="H31" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="4">
+      <c r="I31" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1357,10 +1405,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1404,28 +1452,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="4">
+      <c r="A44" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1450,28 +1498,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="D46" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="4">
+      <c r="I46" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1675,10 +1723,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="J53" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1722,28 +1770,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="4">
+      <c r="A55" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="4">
+      <c r="B55" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="4">
+      <c r="C55" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D55" t="s" s="4">
+      <c r="D55" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="4">
+      <c r="E55" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="4">
+      <c r="F55" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="4">
+      <c r="G55" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="4">
+      <c r="H55" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1768,28 +1816,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="4">
+      <c r="B57" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="4">
+      <c r="C57" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="4">
+      <c r="D57" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="4">
+      <c r="E57" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="4">
+      <c r="F57" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="4">
+      <c r="G57" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="4">
+      <c r="H57" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="4">
+      <c r="I57" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1964,10 +2012,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="J63" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2011,28 +2059,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="4">
+      <c r="A65" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="4">
+      <c r="B65" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="4">
+      <c r="C65" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D65" t="s" s="4">
+      <c r="D65" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="4">
+      <c r="E65" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="4">
+      <c r="F65" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="4">
+      <c r="G65" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="4">
+      <c r="H65" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2057,28 +2105,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="4">
+      <c r="B67" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="4">
+      <c r="C67" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="4">
+      <c r="D67" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="4">
+      <c r="E67" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="4">
+      <c r="F67" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="4">
+      <c r="G67" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="4">
+      <c r="H67" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="4">
+      <c r="I67" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2282,10 +2330,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="K74" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2329,28 +2377,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="4">
+      <c r="A76" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C76" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="4">
+      <c r="D76" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2375,28 +2423,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="4">
+      <c r="D78" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="4">
+      <c r="I78" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2629,10 +2677,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="J86" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="K86" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2676,28 +2724,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="4">
+      <c r="A88" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="4">
+      <c r="C88" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D88" t="s" s="4">
+      <c r="D88" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="4">
+      <c r="G88" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2722,28 +2770,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="4">
+      <c r="C90" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="4">
+      <c r="D90" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="4">
+      <c r="I90" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2918,10 +2966,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K96" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2965,28 +3013,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="4">
+      <c r="A98" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3011,28 +3059,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="4">
+      <c r="C100" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="4">
+      <c r="D100" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="4">
+      <c r="E100" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="4">
+      <c r="F100" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="4">
+      <c r="G100" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="4">
+      <c r="H100" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="4">
+      <c r="I100" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3178,10 +3226,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="4" t="s">
+      <c r="J105" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="4" t="s">
+      <c r="K105" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3225,28 +3273,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="4">
+      <c r="A107" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="4">
+      <c r="B107" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="4">
+      <c r="C107" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="4">
+      <c r="D107" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="4">
+      <c r="G107" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="4">
+      <c r="H107" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3271,28 +3319,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="4">
+      <c r="B109" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="4">
+      <c r="C109" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="4">
+      <c r="D109" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="4">
+      <c r="E109" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="4">
+      <c r="F109" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="4">
+      <c r="G109" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="4">
+      <c r="H109" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="4">
+      <c r="I109" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3496,10 +3544,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="4" t="s">
+      <c r="J116" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K116" s="4" t="s">
+      <c r="K116" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3543,28 +3591,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="4">
+      <c r="A118" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="4">
+      <c r="C118" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D118" t="s" s="4">
+      <c r="D118" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="4">
+      <c r="E118" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="4">
+      <c r="F118" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="4">
+      <c r="G118" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="4">
+      <c r="H118" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3589,28 +3637,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="4">
+      <c r="B120" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="4">
+      <c r="C120" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="4">
+      <c r="D120" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="4">
+      <c r="E120" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="4">
+      <c r="F120" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="4">
+      <c r="G120" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="4">
+      <c r="H120" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="4">
+      <c r="I120" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3814,10 +3862,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="4" t="s">
+      <c r="J127" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="4" t="s">
+      <c r="K127" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3861,28 +3909,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="4">
+      <c r="A129" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="4">
+      <c r="C129" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="4">
+      <c r="D129" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="4">
+      <c r="E129" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="4">
+      <c r="F129" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="4">
+      <c r="G129" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="4">
+      <c r="H129" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3907,28 +3955,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="4">
+      <c r="C131" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="4">
+      <c r="D131" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="4">
+      <c r="E131" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="4">
+      <c r="F131" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="4">
+      <c r="G131" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="4">
+      <c r="H131" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="4">
+      <c r="I131" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4103,10 +4151,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="4" t="s">
+      <c r="J137" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K137" s="4" t="s">
+      <c r="K137" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4150,28 +4198,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="4">
+      <c r="A139" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="4">
+      <c r="B139" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="4">
+      <c r="C139" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D139" t="s" s="4">
+      <c r="D139" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="4">
+      <c r="E139" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="4">
+      <c r="F139" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="4">
+      <c r="G139" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="4">
+      <c r="H139" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4196,28 +4244,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="4">
+      <c r="C141" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="4">
+      <c r="D141" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="4">
+      <c r="G141" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="4">
+      <c r="H141" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="4">
+      <c r="I141" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4363,10 +4411,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="4" t="s">
+      <c r="J146" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="4" t="s">
+      <c r="K146" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4410,28 +4458,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="4">
+      <c r="A148" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4456,28 +4504,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="4">
+      <c r="B150" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="4">
+      <c r="C150" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="4">
+      <c r="D150" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="4">
+      <c r="E150" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="4">
+      <c r="F150" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="4">
+      <c r="G150" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="4">
+      <c r="H150" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="4">
+      <c r="I150" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4652,10 +4700,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="4" t="s">
+      <c r="J156" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="4" t="s">
+      <c r="K156" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4699,28 +4747,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="4">
+      <c r="A158" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="4">
+      <c r="C158" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="4">
+      <c r="D158" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4745,28 +4793,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="4">
+      <c r="C160" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="4">
+      <c r="D160" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="4">
+      <c r="I160" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4941,10 +4989,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="4" t="s">
+      <c r="J166" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="4" t="s">
+      <c r="K166" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4988,28 +5036,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="4">
+      <c r="A168" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="4">
+      <c r="C168" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="4">
+      <c r="D168" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5034,28 +5082,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="4">
+      <c r="I170" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5201,10 +5249,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="4" t="s">
+      <c r="J175" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="4" t="s">
+      <c r="K175" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5248,28 +5296,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="4">
+      <c r="A177" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="4">
+      <c r="B177" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="4">
+      <c r="C177" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="4">
+      <c r="D177" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="4">
+      <c r="E177" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="4">
+      <c r="F177" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="4">
+      <c r="G177" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="4">
+      <c r="H177" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5294,28 +5342,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="4">
+      <c r="B179" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="4">
+      <c r="C179" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="4">
+      <c r="D179" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="4">
+      <c r="E179" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="4">
+      <c r="F179" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="4">
+      <c r="G179" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="4">
+      <c r="H179" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="4">
+      <c r="I179" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5403,10 +5451,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="4" t="s">
+      <c r="J182" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K182" s="4" t="s">
+      <c r="K182" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5450,28 +5498,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="4">
+      <c r="A184" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="4">
+      <c r="C184" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D184" t="s" s="4">
+      <c r="D184" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5496,28 +5544,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="4">
+      <c r="C186" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="4">
+      <c r="D186" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="4">
+      <c r="I186" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5663,10 +5711,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="4" t="s">
+      <c r="J191" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K191" s="4" t="s">
+      <c r="K191" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5100" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -624,10 +642,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -671,28 +689,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="12">
+      <c r="A17" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="12">
+      <c r="B17" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="C17" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="12">
+      <c r="D17" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="E17" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="12">
+      <c r="F17" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="12">
+      <c r="G17" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="12">
+      <c r="H17" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -717,28 +735,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="C19" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="12">
+      <c r="D19" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F19" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="12">
+      <c r="I19" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -971,10 +989,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -1018,28 +1036,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="12">
+      <c r="A29" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="12">
+      <c r="B29" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="12">
+      <c r="C29" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="12">
+      <c r="D29" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="E29" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="12">
+      <c r="F29" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="12">
+      <c r="G29" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="12">
+      <c r="H29" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1064,28 +1082,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="C31" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="12">
+      <c r="D31" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="12">
+      <c r="F31" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G31" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="12">
+      <c r="H31" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="12">
+      <c r="I31" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1405,10 +1423,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1452,28 +1470,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="12">
+      <c r="A44" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="12">
+      <c r="C44" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="12">
+      <c r="D44" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1498,28 +1516,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="12">
+      <c r="C46" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="D46" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="12">
+      <c r="I46" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1723,10 +1741,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="12" t="s">
+      <c r="J53" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="12" t="s">
+      <c r="K53" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1770,28 +1788,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="12">
+      <c r="A55" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="12">
+      <c r="B55" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="12">
+      <c r="C55" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D55" t="s" s="12">
+      <c r="D55" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="12">
+      <c r="E55" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="12">
+      <c r="F55" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="12">
+      <c r="G55" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="12">
+      <c r="H55" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1816,28 +1834,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="12">
+      <c r="B57" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="12">
+      <c r="C57" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="12">
+      <c r="D57" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="12">
+      <c r="E57" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="12">
+      <c r="F57" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="12">
+      <c r="G57" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="12">
+      <c r="H57" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="12">
+      <c r="I57" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2012,10 +2030,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="12" t="s">
+      <c r="J63" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="12" t="s">
+      <c r="K63" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2059,28 +2077,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="12">
+      <c r="A65" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="12">
+      <c r="B65" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="12">
+      <c r="C65" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D65" t="s" s="12">
+      <c r="D65" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="12">
+      <c r="E65" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="12">
+      <c r="F65" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="12">
+      <c r="G65" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="12">
+      <c r="H65" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2105,28 +2123,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="12">
+      <c r="B67" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="12">
+      <c r="C67" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="12">
+      <c r="D67" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="12">
+      <c r="E67" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="12">
+      <c r="F67" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="12">
+      <c r="G67" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="12">
+      <c r="H67" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="12">
+      <c r="I67" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2330,10 +2348,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="J74" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="12" t="s">
+      <c r="K74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2377,28 +2395,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="12">
+      <c r="A76" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="12">
+      <c r="C76" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="12">
+      <c r="D76" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2423,28 +2441,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="12">
+      <c r="C78" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="12">
+      <c r="D78" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="12">
+      <c r="I78" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2677,10 +2695,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="12" t="s">
+      <c r="J86" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K86" s="12" t="s">
+      <c r="K86" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2724,28 +2742,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="12">
+      <c r="A88" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="12">
+      <c r="C88" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D88" t="s" s="12">
+      <c r="D88" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="12">
+      <c r="F88" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="12">
+      <c r="G88" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2770,28 +2788,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="12">
+      <c r="C90" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="12">
+      <c r="D90" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="12">
+      <c r="I90" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2966,10 +2984,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="J96" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="12" t="s">
+      <c r="K96" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -3013,28 +3031,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="12">
+      <c r="A98" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3059,28 +3077,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="12">
+      <c r="B100" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="12">
+      <c r="C100" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="12">
+      <c r="D100" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="12">
+      <c r="E100" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="12">
+      <c r="F100" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="12">
+      <c r="G100" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="12">
+      <c r="H100" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="12">
+      <c r="I100" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3226,10 +3244,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="12" t="s">
+      <c r="J105" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="12" t="s">
+      <c r="K105" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3273,28 +3291,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="12">
+      <c r="A107" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="12">
+      <c r="C107" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="12">
+      <c r="D107" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="12">
+      <c r="F107" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3319,28 +3337,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="12">
+      <c r="C109" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="12">
+      <c r="D109" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="12">
+      <c r="E109" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="12">
+      <c r="F109" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="12">
+      <c r="G109" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="12">
+      <c r="H109" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="12">
+      <c r="I109" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3544,10 +3562,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="12" t="s">
+      <c r="J116" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K116" s="12" t="s">
+      <c r="K116" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3591,28 +3609,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="12">
+      <c r="A118" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="12">
+      <c r="B118" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="12">
+      <c r="C118" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D118" t="s" s="12">
+      <c r="D118" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="12">
+      <c r="E118" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="12">
+      <c r="F118" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="12">
+      <c r="G118" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="12">
+      <c r="H118" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3637,28 +3655,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="12">
+      <c r="B120" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="12">
+      <c r="C120" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="12">
+      <c r="D120" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="12">
+      <c r="E120" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="12">
+      <c r="F120" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="12">
+      <c r="G120" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="12">
+      <c r="H120" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="12">
+      <c r="I120" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3862,10 +3880,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="12" t="s">
+      <c r="J127" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="12" t="s">
+      <c r="K127" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3909,28 +3927,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="12">
+      <c r="A129" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="12">
+      <c r="B129" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="12">
+      <c r="C129" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="12">
+      <c r="D129" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="12">
+      <c r="E129" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="12">
+      <c r="F129" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="12">
+      <c r="G129" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="12">
+      <c r="H129" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3955,28 +3973,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="12">
+      <c r="B131" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="12">
+      <c r="C131" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="12">
+      <c r="D131" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="12">
+      <c r="E131" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="12">
+      <c r="F131" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="12">
+      <c r="G131" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="12">
+      <c r="H131" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="12">
+      <c r="I131" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4151,10 +4169,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="12" t="s">
+      <c r="J137" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K137" s="12" t="s">
+      <c r="K137" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4198,28 +4216,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="12">
+      <c r="A139" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="12">
+      <c r="B139" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="12">
+      <c r="C139" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D139" t="s" s="12">
+      <c r="D139" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="12">
+      <c r="E139" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="12">
+      <c r="F139" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="12">
+      <c r="G139" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="12">
+      <c r="H139" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4244,28 +4262,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="12">
+      <c r="C141" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="12">
+      <c r="D141" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="12">
+      <c r="F141" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="12">
+      <c r="G141" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="12">
+      <c r="H141" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="12">
+      <c r="I141" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4411,10 +4429,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="12" t="s">
+      <c r="J146" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="12" t="s">
+      <c r="K146" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4458,28 +4476,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="12">
+      <c r="A148" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4504,28 +4522,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="12">
+      <c r="B150" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="12">
+      <c r="C150" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="12">
+      <c r="D150" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="12">
+      <c r="E150" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="12">
+      <c r="F150" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="12">
+      <c r="G150" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="12">
+      <c r="H150" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="12">
+      <c r="I150" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4700,10 +4718,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="12" t="s">
+      <c r="J156" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="12" t="s">
+      <c r="K156" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4747,28 +4765,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="12">
+      <c r="A158" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="12">
+      <c r="C158" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="12">
+      <c r="D158" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4793,28 +4811,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="12">
+      <c r="C160" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="12">
+      <c r="D160" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="12">
+      <c r="I160" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4989,10 +5007,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="12" t="s">
+      <c r="J166" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="12" t="s">
+      <c r="K166" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -5036,28 +5054,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="12">
+      <c r="A168" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="12">
+      <c r="C168" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="12">
+      <c r="D168" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5082,28 +5100,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="12">
+      <c r="I170" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5249,10 +5267,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="12" t="s">
+      <c r="J175" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="12" t="s">
+      <c r="K175" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5296,28 +5314,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="12">
+      <c r="A177" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="12">
+      <c r="B177" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="12">
+      <c r="C177" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="12">
+      <c r="D177" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="12">
+      <c r="E177" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="12">
+      <c r="F177" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="12">
+      <c r="G177" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="12">
+      <c r="H177" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5342,28 +5360,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="12">
+      <c r="B179" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="12">
+      <c r="C179" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="12">
+      <c r="D179" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="12">
+      <c r="E179" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="12">
+      <c r="F179" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="12">
+      <c r="G179" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="12">
+      <c r="H179" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="12">
+      <c r="I179" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5451,10 +5469,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="12" t="s">
+      <c r="J182" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K182" s="12" t="s">
+      <c r="K182" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5498,28 +5516,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="12">
+      <c r="A184" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="12">
+      <c r="C184" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D184" t="s" s="12">
+      <c r="D184" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5544,28 +5562,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="12">
+      <c r="C186" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="12">
+      <c r="D186" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="12">
+      <c r="I186" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5711,10 +5729,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="12" t="s">
+      <c r="J191" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K191" s="12" t="s">
+      <c r="K191" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
